--- a/Pearsons_CC/Python_Code/Purine_Base_good.xlsx
+++ b/Pearsons_CC/Python_Code/Purine_Base_good.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Shock" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Condition</t>
   </si>
@@ -164,18 +164,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,9 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,9 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -722,11 +713,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -915,55 +904,29 @@
         <v>7.7083000000000013E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.16298645</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-7.9418000000000002E-2</v>
-      </c>
-      <c r="E8" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.20416085</v>
-      </c>
-      <c r="H8" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>5.8195799999999992E-2</v>
       </c>
-      <c r="D9">
+      <c r="D8">
         <v>-6.9648000000000002E-2</v>
       </c>
-      <c r="E9">
+      <c r="E8">
         <v>9.0117499999999989E-3</v>
       </c>
-      <c r="F9">
+      <c r="F8">
         <v>0.18179500000000001</v>
       </c>
-      <c r="G9">
+      <c r="G8">
         <v>8.9555999999999993E-3</v>
       </c>
-      <c r="H9">
+      <c r="H8">
         <v>-2.3326599999999999E-2</v>
       </c>
     </row>
@@ -974,7 +937,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1032,185 +995,107 @@
         <v>-2.409805</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.33721250000000003</v>
-      </c>
-      <c r="D3" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-0.42655750000000003</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.19829950000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-0.45808599999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1.3131149999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.29429</v>
-      </c>
-      <c r="D4" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-0.52894229999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.40635199999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1.513255</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-2.435435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.2613375</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.34346240000000006</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.7543E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.23386850000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.22333449999999999</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-0.30522700000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.92905299999999991</v>
+      </c>
+      <c r="E3">
+        <v>-7.8557390599999985E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.72581050000000003</v>
+      </c>
+      <c r="G3">
+        <v>-0.62001450000000002</v>
+      </c>
+      <c r="H3">
+        <v>-1.277685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2.0564650000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.93893300000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.50489200000000012</v>
+      </c>
+      <c r="F4">
+        <v>1.5726499999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.55446400000000007</v>
+      </c>
+      <c r="H4">
+        <v>-0.2781035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.19957949999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.20077355000000002</v>
+      </c>
+      <c r="E5">
+        <v>-0.43255319999999997</v>
+      </c>
+      <c r="F5">
+        <v>9.6183499999999991E-2</v>
+      </c>
+      <c r="G5">
+        <v>-0.61018799999999995</v>
+      </c>
+      <c r="H5">
+        <v>-1.221435</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>-0.30522700000000003</v>
+        <v>1.7764549999999999</v>
       </c>
       <c r="D6">
-        <v>0.92905299999999991</v>
+        <v>0.9286684999999999</v>
       </c>
       <c r="E6">
-        <v>-7.8557390599999985E-2</v>
+        <v>0.19488389999999997</v>
       </c>
       <c r="F6">
-        <v>0.72581050000000003</v>
+        <v>0.68879199999999996</v>
       </c>
       <c r="G6">
-        <v>-0.62001450000000002</v>
+        <v>0.14906550000000002</v>
       </c>
       <c r="H6">
-        <v>-1.277685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2.0564650000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.93893300000000002</v>
-      </c>
-      <c r="E7">
-        <v>0.50489200000000012</v>
-      </c>
-      <c r="F7">
-        <v>1.5726499999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.55446400000000007</v>
-      </c>
-      <c r="H7">
-        <v>-0.2781035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.19957949999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.20077355000000002</v>
-      </c>
-      <c r="E8">
-        <v>-0.43255319999999997</v>
-      </c>
-      <c r="F8">
-        <v>9.6183499999999991E-2</v>
-      </c>
-      <c r="G8">
-        <v>-0.61018799999999995</v>
-      </c>
-      <c r="H8">
-        <v>-1.221435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1.7764549999999999</v>
-      </c>
-      <c r="D9">
-        <v>0.9286684999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.19488389999999997</v>
-      </c>
-      <c r="F9">
-        <v>0.68879199999999996</v>
-      </c>
-      <c r="G9">
-        <v>0.14906550000000002</v>
-      </c>
-      <c r="H9">
         <v>-0.15565735</v>
       </c>
     </row>
@@ -1472,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
